--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>148.0</v>
+        <v>168.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>148.0</v>
+        <v>167.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>167.0</v>
+        <v>169.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>169.0</v>
+        <v>265.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>265.0</v>
+        <v>275.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>275.0</v>
+        <v>292.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>292.0</v>
+        <v>294.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>275.0</v>
+        <v>293.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>294.0</v>
+        <v>296.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>292.0</v>
+        <v>295.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>295.0</v>
+        <v>296.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>296.0</v>
+        <v>300.0</v>
       </c>
       <c r="B2">
         <v>50</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>300.0</v>
+        <v>318.0</v>
       </c>
       <c r="B2">
         <v>50</v>
